--- a/error_code_index.xlsx
+++ b/error_code_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15273\Error_Information_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8C7DFB-0CBA-4DC3-9F36-3C43013C9AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE22FD5-45AA-4003-8A81-CEC53B309033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2882,7 +2882,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/error_code_index.xlsx
+++ b/error_code_index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15273\Error_Information_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE22FD5-45AA-4003-8A81-CEC53B309033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4817E9D5-1A6D-4E8D-9EF8-BB5BC47949B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mode" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="position_scope" sheetId="10" r:id="rId4"/>
     <sheet name="position_console" sheetId="11" r:id="rId5"/>
     <sheet name="position2" sheetId="4" r:id="rId6"/>
-    <sheet name="code1" sheetId="5" r:id="rId7"/>
-    <sheet name="code2" sheetId="8" r:id="rId8"/>
-    <sheet name="code3" sheetId="6" r:id="rId9"/>
+    <sheet name="position2_name" sheetId="12" r:id="rId7"/>
+    <sheet name="code1" sheetId="5" r:id="rId8"/>
+    <sheet name="code2" sheetId="8" r:id="rId9"/>
+    <sheet name="code3" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="247">
   <si>
     <t>初始化模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EI8015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EI8013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1号臂小衡梁旋转关节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1号臂小立柱旋转关节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2号臂小衡梁旋转关节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2号臂小立柱旋转关节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3号臂小衡梁旋转关节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3号臂肘旋转关节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -975,6 +960,66 @@
   </si>
   <si>
     <t>EI8007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EI8004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号臂小横梁旋转关节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号臂小横梁旋转关节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号臂小横梁旋转关节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆解臂平行四边形关节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主手电位计数值不在范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主手编码器数值抖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械臂被动关节编码器数值抖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械臂被动关节电位计数值抖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主手夹持电位计数值抖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械臂主动关节编码器数值抖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械臂力传感器数值抖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台车扶手力传感器数值抖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字开关量输入异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械臂被动关节编码器不在范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1312,7 +1357,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1322,10 +1367,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1349,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1357,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1365,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1373,7 +1418,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1381,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1389,7 +1434,611 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1258394-D9C8-4227-B194-F33EDC2C097C}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1413,10 +2062,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1533,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029105F7-78D0-4046-B4B2-FC1B02F7F8B3}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1594,37 +2243,37 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1632,37 +2281,37 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1670,37 +2319,37 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1708,493 +2357,493 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2857,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2265,78 +2914,78 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2344,37 +2993,37 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2382,37 +3031,37 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2420,37 +3069,37 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2458,417 +3107,417 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2881,8 +3530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4B9E5F-E81B-464C-948C-00E02118AFD3}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2939,610 +3588,610 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +4205,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3573,7 +4222,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -3626,49 +4275,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
         <v>119</v>
       </c>
-      <c r="K2" t="s">
-        <v>123</v>
-      </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -3676,49 +4325,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" t="s">
         <v>120</v>
       </c>
-      <c r="K3" t="s">
-        <v>124</v>
-      </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3726,49 +4375,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" t="s">
         <v>121</v>
       </c>
-      <c r="K4" t="s">
-        <v>125</v>
-      </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3776,49 +4425,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
         <v>122</v>
       </c>
-      <c r="K5" t="s">
-        <v>126</v>
-      </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3826,49 +4475,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3876,49 +4525,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3926,49 +4575,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3976,49 +4625,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -4026,49 +4675,49 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -4076,49 +4725,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -4126,49 +4775,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -4176,49 +4825,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -4226,49 +4875,49 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -4276,49 +4925,49 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4326,49 +4975,49 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4376,49 +5025,49 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4426,49 +5075,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4476,49 +5125,49 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4526,49 +5175,49 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4576,49 +5225,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -4626,49 +5275,49 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -4676,49 +5325,49 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -4726,49 +5375,49 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -4776,49 +5425,49 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -4826,49 +5475,49 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -4876,49 +5525,49 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -4926,49 +5575,49 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -4976,49 +5625,49 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -5026,49 +5675,49 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -5076,49 +5725,49 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -5126,49 +5775,49 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -5176,49 +5825,49 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -5226,49 +5875,49 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -5276,49 +5925,49 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -5326,49 +5975,49 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -5376,49 +6025,49 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -5426,49 +6075,49 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -5476,49 +6125,49 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -5526,49 +6175,49 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -5576,49 +6225,49 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -5626,49 +6275,49 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5678,11 +6327,126 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE1E25C-7BFE-4017-94A2-089022E77A31}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B26A39-E35C-473B-9018-299046632E0D}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5694,7 +6458,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -5732,34 +6496,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -5767,34 +6531,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -5802,34 +6566,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5837,34 +6601,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5873,12 +6637,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C4E695-4459-4D0E-AFCF-CF0920CCF34B}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5890,7 +6654,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5904,10 +6668,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5915,10 +6679,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5926,10 +6690,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5937,10 +6701,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
         <v>204</v>
-      </c>
-      <c r="C5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5948,10 +6712,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
         <v>205</v>
-      </c>
-      <c r="C6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5959,10 +6723,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5970,10 +6734,10 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5981,10 +6745,10 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5992,10 +6756,10 @@
         <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6003,10 +6767,10 @@
         <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6014,10 +6778,10 @@
         <v>512</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6025,10 +6789,10 @@
         <v>1024</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6036,614 +6800,10 @@
         <v>2048</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1258394-D9C8-4227-B194-F33EDC2C097C}">
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" t="s">
-        <v>227</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" t="s">
-        <v>227</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" t="s">
-        <v>227</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" t="s">
-        <v>227</v>
-      </c>
-      <c r="F26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
